--- a/2025-02-06/Soccer_2025-02-06.xlsx
+++ b/2025-02-06/Soccer_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276230993991?_skw=PSA+10&amp;hash=item4050a67847:g:kzUAAOSwdAdlfOT2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnpTyYqw9yIFhgh%2Fto%2B6BUEvdbp7ahnYf4etcRd1B%2BP%2Fz17e7nyAWVDNsGgLMoJtLMO62WFP3AVduRcnlUhENK0AOI2rXqVnKnxFaq3If%2FuRJdLfHNx4oZgiygyOGUaxYQ29WUOPiNQHR6yEEXhOdNPxRwrFYIPTlBzFN3g7suQz6E9cYQW2FTu62FROhs2uxEO2eOEtdRx9ExwAa%2FW9fPhulJYFyV0SIAHYR7C1sMv7os2p%2FMZWJP8Ur6Ajxv0oLu3BYy3SC2xkChURFF1q3qo%7Ctkp%3ABk9SR6iE64qcZQ</t>
+          <t>https://www.ebay.com/itm/276230993991?_skw=PSA+10&amp;hash=item4050a67847:g:kzUAAOSwdAdlfOT2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnpTyYqw9yIFhgh%2Fto%2B6BUEvdbp7ahnYf4etcRd1B%2BP%2Fz17e7nyAWVDNsGgLMoJtLMO62WFP3AVduRcnlUhENK0AOI2rXqVnKnxFaq3If%2FuRJdLfHNx4oZgiygyOGUaxYRjh6t%2BFWnutBs%2FOeLoIrzccvdMhFc7eQEfbq26%2FKsmCn64mnuqivX4jYEDU1MMGvkdHZYKGHaMWOShhO9LaZ4qMGQdFj%2FnG4gFbvkBMv%2BOCwEsaKyqIg8hzEQsgQM2Io3v%2FMlpFv4CXWH33yv32Ntn%7Ctkp%3ABk9SR5bkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -525,27 +525,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Panini Select FIFA</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>White Sparkle Prizm</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bukayo Saka</t>
+          <t>David Villa</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$197.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296989273972?_skw=PSA+10&amp;epid=2342345772&amp;hash=item4525f0af74:g:ufMAAOSwxPxnpL5H&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmvB8YrcOACntcr%2BQyyS668sgklkmPGmyi93vJ43sqiOgLoJoXt%2FMs%2BvBD0xWZN%2FngBb4BRFt4Wq0x40gjVpN7EsqrryTpxvtOMrJwUhlYhJqUhTZWsEeCahipix9EdoJO%2BgtifXLeB3xkQV2cdgXHW6ievLWJNQtRf4%2FjPwIdrXdDiKoQcZ3evBsEygSCWo2Z5EJMzqcwnfuOE%2FkkYth5rUxVOIoTAd%2BwL5W84Dod%2BcA%3D%3D%7Ctkp%3ABk9SR6iE64qcZQ</t>
+          <t>https://www.ebay.com/itm/126912697320?_skw=PSA+10&amp;hash=item1d8c9613e8:g:698AAOSwf9hnnHKt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl3i4nRiijAtDSc1ovHmDEMRQ66hi47o6DKWjD3JbaNpTi%2BC1N6e%2BcvCrcs5slgw9gDzYybEvkehrry1eyTiOH9N3LORajg70MRe%2B%2FGXt3Wh1b5A9YhvHA%2BLUgazKJ8Jpj3SUtuPx4%2F2YI5bHNvjrxWUWA0dgNpsRHmctIDecbIg%2BGygjvqVfMJbEXXXjNzW9KoPDBkO%2BLOHvXLGR3NAZ5JG5duCU%2FWNVNP9YLN%2F8CNfg%3D%3D%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PANINI DONRUSS FIFA KABOOM!</t>
+          <t>Panini Select FIFA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kaboom</t>
+          <t>White Sparkle Prizm</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Christian Pulisic</t>
+          <t>Bukayo Saka</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326431148576?_skw=PSA+10&amp;epid=5063176480&amp;hash=item4c00d00a20:g:r~4AAOSwbldnpDzs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnpXYXjfESWBNHcI17a%2B8Nl4h14lYzvzTQF%2FuwZqtjYzNjvl1yTdgfP4A8rLwZfVaV44GYnhSze%2FBmWlPU8SfH7NSA4DLJnMDw6KTY5jNHAFZy2MaCUzdGKtqYyUDSGsOyuMvr%2FB7LCQAWucQKSD9chiUkdVRGvArSW0uel6jAoXWF8k28l9VJqvvWjQRbR9peJBJSVlV%2FwNA4H9QsPcKPqlOf63vdsrM0UktS4JbZrCA%3D%3D%7Ctkp%3ABk9SR6iE64qcZQ</t>
+          <t>https://www.ebay.com/itm/296989273972?_skw=PSA+10&amp;epid=2342345772&amp;hash=item4525f0af74:g:ufMAAOSwxPxnpL5H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkbXBh5eglRkhn5yKsE%2FOYEVPkCE%2BHYUTXPapqzB46kYCZiIZPehJ%2BrqUKpghOsGV%2FJzpiQY3PENbREhM1R5uEAKThE54Go%2BxfMcI4Fc7LX66Vo0JtsqcXdy9HtnejBJOwV7eV%2BJ4UPb%2FY0niOomGGrOJXSBbtNxC9sruYsqpuBwz5H9NiqJ%2BT76u93JmXKM1CI0Ghjn6assC%2BSvkXb3F48b8DsfvUR7ag%2Buy98Ym2msdXbh%2Bni2ya7iXQj964XnEELyn55yPpQ0Sl4TKss32cr%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -609,23 +609,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>PANINI DONRUSS FIFA KABOOM!</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kaboom</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Heung-Min Son</t>
+          <t>Christian Pulisic</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -635,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375911500026?_skw=PSA+10&amp;hash=item57861248fa:g:sgAAAOSwvptnffgg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlbu2eohceOwDZc3CUrZYWgEK79E40VdBcM3CdoHpgiwcfe%2BkMjeRmmoAj%2BgxyWE3LSYviygtUT63SJgpnxEZ7oW9jqtY3gNBEnqTEp0V8JNLgMxxO64NKJ7tvI2D%2B6MtklGA%2FL6RwRmIicxuovzJGUx2mHkKKKLDdILfYxSyRGFfDmJ90ynRlGWDpUAcyCo45UVG8x2DUnWndEzKWotWhChMfPIZOPhExka4n1Sr4nwg%3D%3D%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/326431148576?_skw=PSA+10&amp;epid=5063176480&amp;hash=item4c00d00a20:g:r~4AAOSwbldnpDzs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk7gkgfwSZRG9O%2FHXochTPj1IH9K3jHeHBTToltqbta8m994wau00fuO3wT09uYXK957PASiwpCriLdJCQbtc1obc05MQMjKWKzgkYdoQSbeuqzSbpWQ9hb29TAE7oyNaJYhbT3kf0wTB4RBGueg37i8QJSPJOZmOYGGNLTy%2BdjdYhG1tigErLr86RocAOZyEXNRlYeAgoELkghjIqKAqWztYu7OhBcFcwL6SnrQrwdLANKmGyf6Uav%2BQ%2BzWnD%2FOb8rc55s84mgDroaa6molhTK%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -647,23 +651,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Topps Premier Gold</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Marcus Rashford</t>
+          <t>Heung-Min Son</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$180.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -673,7 +677,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/386698432575?_skw=PSA+10&amp;epid=19056576257&amp;hash=item5a0905d03f:g:35kAAOSwDJZlsCwZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk24ATM2VHIBBp7iJAOGZQU1Q6EC4cX6gT0NkSfQLmM8k%2Bgyh5uIMLOltlpDUDX2ybp4gX2egJm3mvAwTCFWcqPduC%2F5C40K7NGqrkUi6vZjwyEWyQhOKVEALvv0N22OIPFruX0b7JhCzCNP9H8OOkqSpv4YRA1hwFZk50pxXr1OwzwgNqgksv%2F6em1vFRGLtB4Qc6OB8Q5Raz8PstJhqjfFgGXNuktmRJvfkUd1LoABRTkRjnQwhsVI7TXMqO9VsSnnFN8xoDuKau000PwAwV%2F%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/375911500026?_skw=PSA+10&amp;hash=item57861248fa:g:sgAAAOSwvptnffgg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlbu2eohceOwDZc3CUrZYWgEK79E40VdBcM3CdoHpgiwbPr%2F2kHDMLEbHR722w8IjJKd7SuVukg18VsIL3VvXGrJjT84TLNfF3rFMejGjXogd4Cmw1ekQqJ8H6zNFpr6BVk4ewEcpXSTCv2XS0gU6mlWohULAViGOgGEi0e7dK4GlCRteee6T%2BNL%2BIKa0WHWxommSCy2teTNEQY7CtLlMfvYGLJOShu%2BLyo2svD4fUtsQ%3D%3D%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -685,27 +689,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Topps</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Foil</t>
-        </is>
-      </c>
+          <t>Topps Premier Gold</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Erling Haaland, Jack Grealish, Julian Alvarez, Kevin de Bruyne, Phil Foden</t>
+          <t>Marcus Rashford</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$207.50</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -715,39 +715,39 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135521598623?_skw=PSA+10&amp;hash=item1f8db77c9f:g:PAoAAOSw8p5nmE66&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkictKrtT%2BbY7jO3sNoaFbsIf07H%2F411S0o5IY8TglX8nOQXSb8cg1WrtSXiyhaP1bt3clr3T6vSj3rS2osqQNsimw9F1PPkTauKMI9gfJ%2Fo9XyjxtMsnFVrhnD8OAt9QxOL5BxGlJ9JucpINpo%2BCrDzIcAFL4SX3EEXJMJN6mNv8ZJ5ena5C0iczJxJmqnPpj1tfJ63Zx9il%2BGhSFS6mbIQLam52yM8iBFAgwRAzUY7g%3D%3D%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/386698432575?_skw=PSA+10&amp;epid=19056576257&amp;hash=item5a0905d03f:g:35kAAOSwDJZlsCwZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkGoHCpVknsypcS9GF5CFcY%2Bq06Gcjhlfvo%2BjyqgZ0XzZtNi3Y1ji2br2RLH6VD0EgCCIxUOOhGrOL%2BAYAXo9%2BOrpB%2BiBStf1IyvKVdCo5jHZ%2FJKXTKmqI2ODyijwbykJUtl5RxfDPYCGrAZFXgrwoSuekwpeCXdV8B%2B9ABQ%2B0ZldRnSEMPZJ6eqwxzZSZOGxZDb6VlqeC7g3tPt9UepUr%2BTqQKuDD6PAakQ8BvP8PnEA%3D%3D%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Soccer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Topps</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Foil</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Erling Haaland, Jack Grealish, Julian Alvarez, Kevin de Bruyne, Phil Foden</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$174.10</t>
+          <t>$207.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -757,39 +757,39 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm3ujHWAe4qTRaA4OU8LgpRqHrF6jUvQ8q4pA2EadljIPj6oATBZJJvrEToh3JR%2BIvoG66pUIUqyjkmzkvmbZpTYW1554uB%2F%2B7qPcTt1MLck0tUDOJIszszFK%2FgCTE0KS7GK5CHgRsDRv6D1pAUbvD8Zt1BJSeV1LnD%2BtNXSLwBHKTRSLlRxhn%2B6Kuwxdf9b4IQ2avGxe%2FKJZXt%2B1YZ%2BH5ZZSP9PSW7g%2BnOYFNqryU%2BTXZffBVIAAYSlkpBtjA30g2OrUDzXIdSWTUwtt9Zmjgn%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/135521598623?_skw=PSA+10&amp;hash=item1f8db77c9f:g:PAoAAOSw8p5nmE66&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkictKrtT%2BbY7jO3sNoaFbsIf07H%2F411S0o5IY8TglX8iQ2SoETLvx7gGhx28c9BMh8VYH%2FPOTfDvJQnej8vpU93l1oZl9qiMFLFM33IyWMxNkw25Ig56xxYppgChPtGQH%2Bfu4Kk4LcAjpyQta5Hs8A75Hue5B2iSvCPXnr8lkDAmSRorsBlPPvgwHiRv8FP6cXH2Dniz--AphLQg%2BfQuDXuzOYwOeb%2BOJpXRmKTdLlUg%3D%3D%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Soccer</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Topps Chrome UEFA Women's Champions League</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Red Refractor</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vicky Lopez</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$355.00</t>
+          <t>$174.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186922747482?_skw=PSA+10&amp;epid=4061924003&amp;hash=item2b8576c65a:g:9L0AAOSwcYFnhpzV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5a%2FhB%2BvtroQHDffJo4cYXUxu0ws77ssctSulDKA%2FZtdkND69WEt9npCgaFImWnGj%2BOcwr2ilqCsRnc1ZXknz3Cw1PipxFBVe5eFrsCL2Yufsey0eOFrjdhR5Lm5jVh3wyAwOyrAF1QTRM56VzHHUxwar2d1nfcrYb4yawCY20Oev%2F%2BtF9HVfGheJl0ke2ZiYWOmMQNEfwdGq5C%2Fl0QkySVfZSs3%2BIrM80a4tA6eiN4Q%3D%3D%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm3ujHWAe4qTRaA4OU8LgpRqHrF6jUvQ8q4pA2EadljIPj6oATBZJJvrEToh3JR%2BIvoG66pUIUqyjkmzkvmbZpTYW1554uB%2F%2B7qPcTt1MLck0tUDOJIszszFK%2FgCTE0KS7ayttNLSXoBBFqmJpiSj4lKYBz9xHIGg9WDbLVxUvnzmoMF%2B6FJuWBmjTj%2BKjpzvp0rY1OhTG5MHH1Prlkz%2FnGfmmvwPFvM30yYTOz7yvizSOic95lxmoN%2FRNQVlID1DLeg0rYb3MQVfB%2BQKMZcEA0%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -811,27 +811,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Topps Chrome UEFA Women's Champions League</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Optic Gold Autographs</t>
+          <t>Red Refractor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Timo Werner</t>
+          <t>Vicky Lopez</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$202.50</t>
+          <t>$355.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375959873572?_skw=PSA+10&amp;epid=6056569516&amp;hash=item5788f46824:g:jRgAAOSwMf5nm8f7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKktydklGlQYNLh63TkzPnQ7EprC0uhfRj9v3TH8Qm6liK7t56qaMktytQuESxWy--RIZ5qgR3xTEb9ItZCd0lpuc4gcBn4tTomkiCLB39nDtZt0DdCQtfRBp7q2Nl8voiOKkeCA02pACnKJZ2IAO69kc%2B%2B8cGeYWXeWzzyMaR4MUPA8rI9fc4ZJQ6rkfqOMsHK1vKROpJoSF78TTt7xOiOvpcnePkP4l3RzRxO2S1cn9A%3D%3D%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/186922747482?_skw=PSA+10&amp;epid=4061924003&amp;hash=item2b8576c65a:g:9L0AAOSwcYFnhpzV&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5a%2FhB%2BvtroQHDffJo4cYXUxu0ws77ssctSulDKA%2FZtQI5jJ5W1v75t8Xcks2k%2BxHsZUirN36lQyboF5bpIkwTxrsKufiZjHkeNoC3YxvPGASxAsNARm0feEXFZnHWxXgEeBLUTLcj4bWQg%2FfSrAO%2FC9sDiwuWYVt%2F6d3wuOe5j3i3Jjwz%2Ft1jAmcGIAae%2BxwBi73nH%2FghqLWoBvgtQtouIzwOGnV7Fx0jOUZMAahflw%3D%3D%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Topps Chrome UEFA Women's Champions League</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Black Refractor</t>
+          <t>Optic Gold Autographs</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vicky Lopez</t>
+          <t>Timo Werner</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$405.00</t>
+          <t>$202.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186922746959?_skw=PSA+10&amp;epid=22061927323&amp;hash=item2b8576c44f:g:fLQAAOSwtzZnhpvh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldTuIY06Li7pJm4Xk9NgKI40UCDqOszIQy7ZRlx%2F9FVvYhiqlktLNEtbsd2BPgML0lBIGHdpPWs87d0vyJUM7fkd0oAqNCnCxr5QnpRqQysno9ApGmk1j7Osu70eQ57JKQPWqChCXFtkkt8oLN0NmyZca8maCxfRrYvsJyHu2%2F7NNofRW2QrL%2FIj2iwHYEJQPZPzdCxDkB6WKixYX5VltE4%2BCnbgvs9NCRGt0WF39MQA%3D%3D%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/375959873572?_skw=PSA+10&amp;epid=6056569516&amp;hash=item5788f46824:g:jRgAAOSwMf5nm8f7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmcjqZ7fSEUZXqt3ufGLPL%2BsgkHuF2OlTQtseXBYxfDaE%2B%2BkSovv%2BkWLxU3hddDHKmc0m1SUISUKQetsG7JdI%2FOjfI6wJbjdBUo36ln8WonTMV2md9%2BtquX%2FA5skL%2BVfN4fHnRyYRibVyCIEcsmCr1N7j9Gj2RLagUjXq4Y%2BKMsvSKk0TOn7m1Ly3jF1V2dD1dXp%2BGERC01uJFIToPFTfjgpewSC%2BfzWUkXn5u9n0WcW6Aeu9cxLyvoOhU8a7jezGft9IFnqRjxqzXQEVLQtBit%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Topps Stadium Club Chrome UEFA Club Competitions</t>
+          <t>Topps Chrome UEFA Women's Champions League</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Orange Refractor</t>
+          <t>Black Refractor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lionel Messi</t>
+          <t>Vicky Lopez</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$179.50</t>
+          <t>$405.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156663718821?_skw=PSA+10&amp;epid=20062495612&amp;hash=item2479e2a3a5:g:1uAAAOSwt8tnm9LU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEp1mhjWlgC%2FR%2Fb3aI0z6vnOz1mzUM54CaewKJdnCtChqe9AS7t1Dukxe%2B45tHFPiTF%2FXuQrHsHbfJvM3t7Gg3ibCqjzSnvMPzSH8dWs5N9vTLFPuzimNJpsHEIkyiOiMY21pi4iAO49JEw07YSxt5TEpnQfiq%2FJT28qw%2B0DOeYWuNpYWJj0kwVWVzPapWMlpepyiVentvqfvzxdWH7B0rBQd7Kr%2Bd%2F41GV4CaAMBLSSr2Z1yhQ3DCT2%2FeuXPZRUgi0c8ij9m4ems5xFvIyxhe%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/186922746959?_skw=PSA+10&amp;epid=22061927323&amp;hash=item2b8576c44f:g:fLQAAOSwtzZnhpvh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldTuIY06Li7pJm4Xk9NgKI40UCDqOszIQy7ZRlx%2F9FVkS9IhMnd4w2MNww2hPPboxcp4ttficDXzzKK56S7U7zZNqHsDHBp0t0R0dqu6ocAHwPpFzuOp3e63R5GnvSaz3sQckAzWQm8xFIB24YAI02AjrcAaJlG8GTt%2F18RLj0aYvUGtKzhIsdD3P9n3iFi01xl0pf9oldME8JQQCQFSbIRJwLA6LHD5KL0016MV4u2w%3D%3D%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -937,23 +937,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Topps Chrome Uefa Club Competitions Sapphire Edition</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Topps Stadium Club Chrome UEFA Club Competitions</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Orange Refractor</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lamine Yamal</t>
+          <t>Lionel Messi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$227.50</t>
+          <t>$179.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -963,7 +967,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306060905629?_skw=PSA+10&amp;epid=6072887103&amp;hash=item4742a6cc9d:g:tGkAAOSw-bhnkxcm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKllLlI2fzmBv749sgPc9kci%2FTwWXg0NiYgbZcB9RX1coiHRY5ksZJ5M8MBKDBJ7dt67JvKMu6Sz%2FlsQvYU1kHjqZ%2FYS4Zm7nHsPOsgPljlY8DMC9ylElYI1u8MtFxLyA212lqHeH%2FbRraoqm%2BvJKVJHZhFkOnqd5WponZSHJivYb%2FtRGAWL4z0W78WxD06HEfKBUmz2whj7iODLswBfSkVaNYsvtJ1qt85t6nszQPGhFg%3D%3D%7Ctkp%3ABk9SR6qE64qcZQ</t>
+          <t>https://www.ebay.com/itm/156663718821?_skw=PSA+10&amp;epid=20062495612&amp;hash=item2479e2a3a5:g:1uAAAOSwt8tnm9LU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEp1mhjWlgC%2FR%2Fb3aI0z6vnOz1mzUM54CaewKJdnCtChqe9AS7t1Dukxe%2B45tHFPiTF%2FXuQrHsHbfJvM3t7Gg3ibCqjzSnvMPzSH8dWs5N9vTLFPuzimNJpsHEIkyiOiP%2F9w3rD5c0gm7SAJf89ey08PVmH4tVAiQmrq6bWV9OpUZeCJtH3r6VYQlBTdrWzjlIJxLr1PLgnG3OvexnJGsIU17gMwNFsQo%2FDteWI7tEdQANGFmthOg5JoCgjSBV6qqUL8C44pljZEvYkotlPauN%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -975,27 +979,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Topps Chrome UEFA Club Competitions</t>
+          <t>Panini National Treasures Road to FIFA World Cup</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aqua Wave Refractor</t>
+          <t>Ruby</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lamine Yamal</t>
+          <t>Zico, Pelé</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$183.50</t>
+          <t>$1,374.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1005,7 +1009,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306060905563?_skw=PSA+10&amp;epid=8069555119&amp;hash=item4742a6cc5b:g:G4gAAOSwyAlnkxbT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlYwcNPBuLOXStAsAIfNsgFibfSzon7%2FQSbuv8nTY%2FEIRvcfQfMMeTw9w7SgbWbhcxbTwWR5tAeoujFK4vJ--RxJeQR8RfSKZnbU9Mlj3D4UeL6X%2FiJGyKKlFIty0n6KX7ff%2FHizE2KiVkxNSFWDb1xfci8cbflwtffmm1CtNNfueRHhXnS4jGXc9oGkDAWOgyEvws7d5C5vBwMiPEYJHNuTa8aVvK%2FTJBBswAuCxB2o3Gi%2BkJ%2Bef%2F2HvOXp9a9%2FmzSXd0UPT7rQvZ9IV%2Bd8rYS%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/365367300543?_skw=PSA+10&amp;epid=25057641399&amp;hash=item55119691bf:g:eFoAAOSwQPlnmEXD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlP301D2Gb%2B8nV1XzO9hiMVHttnbiLhDT2gErNoWqIY7gj4FAV5BzJlggPpZv1191oQLmXpEcZUDNqEiQuy4FxK5dLUacIerS5Vf2MzGgNL9%2BuZbzP59mcxpSn3OuSaK%2FVrt9kYZD5Va3B5%2BF%2BJU5sbCIqDzxSvxYDhNiWvEIIacOtvBsj%2BSGx2kDgeEuormv6jkgKvss6SJUOwyW0w8ObW3%2FH6Vifp9qYTFT8K1aOs1AEr0xWP6QUVALM6kbzX%2FGOP2TQqC2EgBOv%2B4wwjipmp%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1021,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Purple Circles</t>
-        </is>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Cristiano Ronaldo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$180.50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1047,39 +1043,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225971214967?_skw=PSA+10&amp;epid=8056564791&amp;hash=item349cef1a77:g:DlUAAOSwdahlg8iU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkhXCf1tTOaIqoZ%2FhBrTearatKFA8o22E6SchTkxNTOf89X0K4Pyim4By2oFpesvoGElJCDHOxFB6OGIftIbPjmZBxZNjS84OmO7bbT8xtpoK9ndpyjIDvYsqyk0iW3QJGF%2FsmOc3fhCoO90tJKkPjZKO8368Z6DkErgc71WU8SsNyumA3H4QP%2BzoY4iHWOEKJWrrombM6Q%2BTQE2nL9LbYk07seE4AfNc%2BeMPpvvQ0qHYsXBo9kv4JteEu0Cxj4youc506o1DWGYv%2Bt1qoNXT%2Fk%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/326424192699?_skw=PSA+10&amp;hash=item4c0065e6bb:g:41gAAOSwf6VnnDll&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnoX5vkC2vxM%2FZYxMlVQrmXeugdPzx90HoeUdwW%2BsyGFEWZq0SdjVYcUmJ9FZNZvswvq3GFHMIqTsR26Kqqx9QT4AVn6wWNFqKRbZ8vrQ%2BGuoZWKgpx9Wmw4VdQNGUYVyKDOws9lt0hIiprn2fOyYKtY3%2FDEytFDmZ%2FFDdRjN9Ay9TvkeBmLlSxEr9DlkVz2dnXhtJmVrLCiqgOXolO5g%2BJ0rdNlxeeFRA5MlYaPWhgp7Z7RWei19ibr0st%2BODXY8WyLPxq972ntz6s%2BzwsrPE3%7Ctkp%3ABk9SR5jkx7GcZQ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Soccer</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-24</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Panini Select FIFA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Gold Prizm</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Viktor Gyokeres</t>
-        </is>
-      </c>
+          <t>Soccer (足球)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$710.00</t>
+          <t>$1,009.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1089,7 +1069,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306072795360?_skw=PSA+10&amp;epid=23071309411&amp;hash=item47435c38e0:g:QGwAAeSweLBnmmZJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlMpQhTTupjSss3%2B%2Fo6IKFZ5hUyWCCzZFgVtAd2l18El43fhpN7dZLdzpQoPSMinZXTiwOE9fD9jtbMrNaBnUPd0jIE4PjhOPPvXKbWqCuFyYtuwwfr2OHRYV6%2FoarZgrfHp5Kxn2AEh9EfY%2Bnh%2FYh0edJ8TX9Mfp7n4RJv6cdE%2BfILhviT%2FDIfrlGdbQRqh7uUSdESUvKtmS%2F3L1NujVFJtBjIRuRbF3ftfwWC1d6k6iDheq6plDqLDyk6BHdjtOJ6ExdWZ6WtQj7BEb24yDiA%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/365367294344?_skw=PSA+10&amp;hash=item5511967988:g:RvoAAOSwaARnmETY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlIOkK2E8Cm0riXk%2BoG0QLxJP4ar9eLXg7gmYXEWdjMHg1bE1XkzkHaZZs7vC0Oy2kWmhVEflxDauyoTQf2oqsdez19BCs3%2FRh2J8RTIc0qBjmni8U5Km36959fkcDRlyIq2y6%2BwPeJs%2BC%2Bmj03033JcrYbyqvX9PubCYuYcrJIiVS3n1SqVvPbKXbKOZrAKnFByG0PWUWMcexKtqWn3sh2kf1aoXHmZ3Nci%2BJZ08hHbA%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1086,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Panini Select</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Gold Mojo</t>
-        </is>
-      </c>
+          <t>Topps Chrome Uefa Club Competitions Sapphire Edition</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bukayo Saka</t>
+          <t>Lamine Yamal</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$249.95</t>
+          <t>$227.50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1131,7 +1107,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387899541015?_skw=PSA+10&amp;epid=18069559964&amp;hash=item5a509d4617:g:JcgAAeSwdi9npUOK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntiAaeK8Ct46CLGSCisbV3uk2%2B%2BfwnBgRM%2F509DieSpHKvCLtCMswugmV1QnS3bemPURULCzYcCMew4%2FGislkqkKppr%2FLZg2UTm1Zb2yGPN1prhrl3sP6g1VCFQSfIk6nGQSr2bE%2BnsJ2db4zbZw73GydrNSIvdIKhwYUUSushHcIdiv5992F05xEE624cj0wPIsvVqitcm7keR6nK6hIW1Fur7BculpWZqsYuZv5kvKIFb03kh1sSmAZLpJe4dqk91%2F26pBrTj2OObGlSob6q%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/306060905629?_skw=PSA+10&amp;epid=6072887103&amp;hash=item4742a6cc9d:g:tGkAAOSw-bhnkxcm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKllLlI2fzmBv749sgPc9kci%2FTwWXg0NiYgbZcB9RX1cogOZM%2FxNQW8WUvT7Xyl9w22YUIPluyqwRemiF19ihWCPJk8lYysBClRCr6isb0xQbm6T7U0hX1fyeW04RMS%2FwJSQGJwJLRHqHm2KlTQwKMjhZ3NakuoeNGmPj7E%2BnmyClsMIgZpYr8tfnGQoNjJUMdKQJ7DtOW3Hoj0PnSv3iLfDrAWoWFHGQfh0KqsUI7I9Dg%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1143,27 +1119,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Topps Chrome UCL</t>
+          <t>Topps Chrome UEFA Club Competitions</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Aqua Wave Refractor</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lionel Messi</t>
+          <t>Lamine Yamal</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$198.51</t>
+          <t>$183.50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1173,39 +1149,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256797051038?_skw=PSA+10&amp;epid=17056470577&amp;hash=item3bca4c089e:g:FnoAAOSwouhnmC9u&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmNhFUQz3pc14sAJfBbQgkBaTIFkTRyRwaOr5t4foc%2B3XP1VhwSsLHY%2FYMCDTOuPM8pn5F4fyaQZLwWH2RtRYUTrhhlsPUJBVYGYQWaHou8gzk6DDsujyLF2oFbISUw9f3kqVNbSLZVVVqrY4Zy%2FOd81spqBIwHB6FKZsdiDbxQg8bQVTkCx3lYVOuv3K3xWPLHiGdtBZwUOxtKND3T2SLpE22CvpTsjMIPiWQO7LWQJA%3D%3D%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/306060905563?_skw=PSA+10&amp;epid=8069555119&amp;hash=item4742a6cc5b:g:G4gAAOSwyAlnkxbT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnMz6Z2r8gMda2AtLHdYdNSF%2BLzvo9bUQy5HJ8sDy5vOWHvWJWRehtHUrNe6iqlU72pMqiLm64owhg%2FBc96SRbfLy9TbLVjjYbgKfYY%2BGhvkIef7SC3WIsvob2O9oy%2BFE7c5rN%2BlTCmT4qaMwS039%2FgoLXN2Z48OOP4wVQos%2BHJjlfw9YQiDlZJUyF26nl44rBWgCx5tYoVj8K10gE4%2BKWZhV1qmiDCu%2Bsul%2FKTMBN9hw%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Soccer</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Panini Prizm CONMEBOL Copa America - Dual Signatures</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Christian Pulisic</t>
-        </is>
-      </c>
+          <t>Soccer (足球)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$2,247.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1215,7 +1175,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396149989222?_skw=PSA+10&amp;epid=5070474956&amp;hash=item5c3c611f66:g:HpsAAOSwLiNneFVb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkTsdPlJ9cPzhE3eZnUWZuPaIIMSlT2%2BXmpps%2BnDnC8EsDOnnL56AVXEKwGCrzU8eAw7jsqegcaIhci33rVyMHbG7hSIMT1LzKkRrAsdk4I0fdvrULiwpy%2Fo7Pb1i1fDkCHNBRkGeF0QV%2BT8zuSyFRzCiC%2Fjg0rS9wvLxlqFVnjPlOCa4ChcfJICmCf%2FsMZ3zyB1gw%2Fhis9lHd8l78MdaOfrOhCiS2ykA0cIysOue5gLdA4V%2BJODDt5jvXSVn0QbkINX4Mon0sn38CCIcb%2BC1si%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/365367274607?_skw=PSA+10&amp;hash=item5511962c6f:g:htgAAOSwC-NnmECO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmzDDX4%2FeLCLg7z0je9I91jV9d4UYBzauDuml0pwDI6JXazy6FgjmiOe6rU6v1t9FlPbLlArh6XQ9JZp1F9oVtFL%2FvYAzb1RqFx2%2BiYLhSQvCOFHwKBr3i1WownmHyp3VfzBLK6gVn0sWsDOimW%2BmZmGAgYW8yGx1M2gZN%2BiHE9pt48qNx1oMiCq5rh3tHwKITQ%2Bd24DdgiJ7phmrzOQfhRbzfcJCJjZg5%2BPekF7VMQJg%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1227,27 +1187,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Topps Stadium Club</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Camo Prizm</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kylian Mbappé</t>
+          <t>Cristiano Ronaldo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$403.77</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1257,7 +1217,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226482666321?_skw=PSA+10&amp;hash=item34bb6b3b51:g:~14AAOSwON5nUgrg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmvBuLDAUBBWBnUfnhQ46nN%2FXI9aGcRPzagPxnAtk1FQ5gd4RosAkN2OTn3WZtf%2Fjj%2B3GBVbuJwnlb7rr8eObXirZS6pn1OI8aJU4MgyTYFtGUMHMPirNx0IbtvZO0YEGd4QJG%2FZTQeCOovBmSmdkbYQYhOvwcn00FQyMeNITVP%2Bz6Sc%2F%2BMMQIKiJ6aqnV0iqdN80rfregZmR%2BN3gQATIlaC65S7jjZRoLXdlCVqgMKlw%3D%3D%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/326424173626?_skw=PSA+10&amp;epid=17057224043&amp;hash=item4c00659c3a:g:fpkAAOSwRblnnDPy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYbezIPZmjZQGiswahLD9jvE%2FR7K1k1re3KFdiWg600U%2BZq%2FVCBj5faF59kf5Cl5ghp5Av0L8nxAps5bN9SnbyoeQPnaWmavS7xR0WgHlMJufDg3MRS7w8Z2yCNrtefzc4DeQvKguEu6T27I5piOcytI%2FpefzVYAGrqJE1lN%2FD5Qa1W7DWjDWNeP5PGnP5rbns%2Bxil%2FVSH3xx4wuTWqJ9mvD6ANXRuAmRRDg1dccN06g%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1272,20 +1232,24 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mosaic</t>
+          <t>Purple Circles</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>João Félix</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$199.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1295,7 +1259,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/374468335210?_skw=PSA+10&amp;epid=3056472906&amp;hash=item57300d566a:g:-XYAAOSwm4VjyGwz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKldvmcfwXeQQ%2FeFlz6RmVXLh7clR%2F6eyeHzCFcUQB4ZQtQYYO0rxY%2F1%2Be%2BDtdK8%2BPc3Go%2FSAezUsJ7y5uZDWlrxE%2BvaOY7LlZDNQUBkOmihTDb4RIp%2BtUwi6Dl%2B8dWLNDcTV9J14%2F4DbMYW4HrQzIQmiNi6uUbOGUaJkkUcDXXtX0HlFoOtGXnGSFHNtIlmGe6A%2F9h2peo3RbbmxFWUN8ovKWy%2Fo%2BuIR7JuUDItlc6rsA%3D%3D%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/225971214967?_skw=PSA+10&amp;epid=8056564791&amp;hash=item349cef1a77:g:DlUAAOSwdahlg8iU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvTiwW9dxXqHI3Jnme5lNvlNEjM7YVPBTM%2FdMaPlzfwaFjQOn26c63c0neHWhghcGXhDXfDjD5ojDFvltXl6zq54sGUgkq9tK4yX1udEA7CguxAoTo9Jn0O05FBE34yFPERe9U7T3vq78OvniueBlhWDBS4lT7ucvrMZUhpucqvThhzF0PpInfY3uI8n%2FKIeQQ9kKse6trcQMXSiucjxBKTzY4wwB38RyKMOm%2BJcWhpQ%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1307,27 +1271,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Panini Obsidian</t>
+          <t>Panini Select FIFA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Black Color Blast</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cristiano Ronaldo</t>
+          <t>Viktor Gyokeres</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$710.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1337,7 +1301,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387891409217?_skw=PSA+10&amp;hash=item5a50213141:g:1P8AAOSw5bBnonGe&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkIOVceU5xHo1RPRHkwKvG7R5BfsleEG%2Fm544cm%2FHCHXwBayY%2BrbybyiR%2FIdo5QLJi2kY8jYb7e3u83NQGygrgT1p%2FEOmJMoyGPYKXt3inUDV1QyxGplp6sxKOe7s0Ir3xj5ylL6P3GPfKiuEuMx%2B8SofringMpLqu%2FvjMSV56W%2FAl3fq4r6yf45laUKRg%2FWlYJSzUcTWD2gu7nGLET9NJNgjjJ79RLzOV7BXigQCpFbu9IR%2Fd7V0VtpXuWrCsNozf7m4OJvCiGAHAZWy2M8vP2%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/306072795360?_skw=PSA+10&amp;epid=23071309411&amp;hash=item47435c38e0:g:QGwAAeSweLBnmmZJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnBCZaFwB%2BYo0YotSg4AkPtMoWXuff%2FLpx9UxxBx%2BDkFSfWFH0jj6ZrZoJZA6tQVnygt4RLyTT%2BchDor9gNE0BelR5xvCno7nfwJ9QUeIGtjVi565r8iS2OIrx8lykrQdcBejU2hSS3ZfRCmpDfYO7aK5BIsBFAJVa%2Bu8u6Z1%2FAmG%2FXX55WymtDMS1G7cLHosoJN2SRo4M3nt7ALjROl9MygBG3G6CUwROGbIYhCgJvvQ%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1349,23 +1313,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Topps Now</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Panini Select</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Gold Mojo</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lamine Yamal</t>
+          <t>Bukayo Saka</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$199.00</t>
+          <t>$249.95</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1375,7 +1343,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276832862453?_skw=PSA+10&amp;hash=item40748640f5:g:wmAAAOSwHSdnl5LD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmbDGFnmgAvIj6k4d7ndktg1XWXdE0CuEh2MAjhFEO7PJu9%2BsTaPWkrmYc4OB9YizFRL0ovOZZ6o8AhRck%2B3KlmzUYqjAb5MKjkTVmhOwlpXoTFjJ2vHiGjWB9vHfM%2FLL8X9MHjlkrAt4r1g3rXbp1LXGxnkW26G3MTN2RCwICqWMZyqqECV7LjFyVGtOauCd4j4vvX%2FnTuK0avenAtOHProkbD%2FeEkcfjvSwhpn5Nj%2BsgceS16AypTQ3apjM82j%2B86DcwNjcDUgwASpOjRhW2w%7Ctkp%3ABk9SR6yE64qcZQ</t>
+          <t>https://www.ebay.com/itm/387899541015?_skw=PSA+10&amp;epid=18069559964&amp;hash=item5a509d4617:g:JcgAAeSwdi9npUOK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnY6Ri%2FOPrT8KOWTFBV6HvypR7PTCYdagpC8ZQ2czZujMFLQj%2BnxInV2OqyDfYbvOXvbHJptCjIDuOA6Yufc492BZ7xmcGmb3AH8IWEPLBMhchn%2F0QnABL%2FasRt8FxwkYPxQJJ3NXNU7QGS33D6aX%2F%2B8l4UmhPYKCKWEbiW6tcboals%2BQPSIa0iIyaGKajhdeWeBRkXDZNX%2BambCQkyJfbu4mqWZ%2B2Qq1%2BzpdIIrZWpNw%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1385,13 +1353,25 @@
           <t>Soccer</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PANINI DONRUSS FIFA KABOOM!</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ROBERT LEWANDOWSKI</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$824.99</t>
+          <t>$398.79</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1401,7 +1381,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176765169985?_skw=PSA+10&amp;epid=21057548783&amp;hash=item2928067141:g:620AAOSwTftncwUs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm8Pi2JgP2dufuB3cVDyCFDhvXMn%2BbsWXUXov8xnDbp2TGF6aVNWXtzj7QZ6bYadbFrV8ppOO3FQ2TQ1Bq8is2%2FGhbyGr19j2gkMNKoRF5bVV5%2BNPq3QhfT2XcLyzvUT7l8itvhGxUPQY6LrTnOhY9YXCVXd3hon8prc4Lquud3CAuE%2FoGSMwhbJ6K0s%2FZBap6rAyNFoJk4gP9po%2BSd%2Fq6Y0YzmHpyB9Px0kECuTqGAArVWBUQb4HbaQjL4Gjye%2F2mig5P8NqrgVtF1Vb5mo0fG%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/306075541571?_skw=PSA+10&amp;epid=23063176332&amp;hash=item4743862043:g:cysAAOSwnGxnm8pv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlFOsE6A7lKroqT%2BXb%2BTYl%2Bh67ndP7Z0n0%2FIzS26ZXH8CNHq6woYNr0uooiAmln26Aecfnf2UMwzdjlK%2BK5KcNWZZ7369Xq71VVjr3eXUJ%2B9zaQ%2F4JEDFAUO%2BWCwfaRrls%2BE0B2riXvoYbP70tUZEcEHuwwqVZXrFq4P88MVI5zfkmSJRnWeHzm9dVbTLfrXNnWTjv8wb3o7B6oEfamiIxxPCBjf2dIXJAzSRsDmNzyCg%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1413,27 +1393,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Chrome UCL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Lionel Messi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$198.51</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1443,7 +1423,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256805460350?_skw=PSA+10&amp;epid=14056547556&amp;hash=item3bcacc597e:g:~pYAAOSweRlnor2w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlT54ei1QjOpzTpLl44z8zz0sxHCzEbUHdKG88on9TUbtjLd5V3sunMjipVE1Lbmkhh%2FvyBWX1csluNndDI3NJpaeoAl87BbtRwzSkm1EJ74EY%2B7a%2BPI8W7CK5kR04GlK08mzYftEvDNfLX8lnRkhJJO6HOby6DJ38qGJ6FB7e83mdhRkAq6kHwSwb8loq2STKCgBfSbJtct5hmWruR%2FnLRtNYX19q1N8mA4NoqRxVYOZBFQY9yZ%2Fm7gXIJZUbHQdQXxdsSVli%2FLD9W77eY4eBK%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/256797051038?_skw=PSA+10&amp;epid=17056470577&amp;hash=item3bca4c089e:g:FnoAAOSwouhnmC9u&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmNhFUQz3pc14sAJfBbQgkBaTIFkTRyRwaOr5t4foc%2B3XgkqwfqpziueURClVzo11Vhxjzd9bQWZZCoH6KQNqZgpNABnF1WcApDq2G6EJCLQ0FjA%2BoZCrfjEG5Ici7NWggHKUROH6fcpQBI2cpPx9pFM%2BepyakkE%2FKl3F1fv4l6AEvu62GWXLY7ZqaSOu38pMtFzkUuzumXu54p%2BoBOBaAkKDEoQgdQjhU%2FKX9R4WsDHg%3D%3D%7Ctkp%3ABk9SR5rkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1455,19 +1435,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Topps Merlin Collection Chrome UCL</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gold Mosaic</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Orange Refractor</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$184.50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1477,7 +1465,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/185604793944?_skw=PSA+10&amp;epid=24056576945&amp;hash=item2b36e86658:g:eDAAAOSwVoZjO33w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlVURMdLimDv3zQWpxYX0xePLt0uf0ax1Bn9z5oPyjmsLZqYAz%2BuUA1N2qcnDkaRZrRPCaKglHE%2BjQJAVBbpRyF7kUOt71uNSvnoGNYr26AkAuF76SQbYdNYlbzPZQQPe16UKtCPYdoguEQW4Np62al093FFpfDAbiWnwrCKEE8Jx1nIBfQENjFzYthvGyoqApbd6ISpQWzzLIlOzEJY97DoSNJ31gR4vVeJhGQt63mR9jy9%2BM2AZdf4KnoQWwSyMIfxq64F5fFonMUtXIUXgTq%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/326424153708?_skw=PSA+10&amp;epid=21056475747&amp;hash=item4c00654e6c:g:8GcAAOSwXolnnC7a&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKljaN%2BnKY0Sy8xUGovX7eM1kygwHBBrcalGzFv3bv6bRSQXkvnWiN32LhaVzEElSw%2BmIEmvqJK%2FI8WXZdu1TNuvhxgThJEZM8hdGB%2B4xuvRhjxSNuRw0rwKb5VyhGFqg%2BvjBn8C35MTQyfP%2FlYxElLrHtr0M2FTaHstGTkKHbaI9JYBpHuNhaOg56NdJqVQXgz6RIlME6Og%2BHC06h4vXnLIAK%2Bl5TtA41v3lQClOM17uzkUO8YzMuigX%2BtH1w%2Biss1kTzx88tFURzSI8y0wfhOU%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1489,23 +1477,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Topps Finest UEFA Champion League</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Panini Select</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Camo</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cristiano Ronaldo</t>
+          <t>Lionel Messi, Robert Lewandowski</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1515,7 +1507,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186251756854?_skw=PSA+10&amp;hash=item2b5d784536:g:kuQAAOSwHQploupZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcwPcvp0rSHT%2BetM6QCv6CabwmJnFMWcNbnDtGH%2FlbYfv7nPQZpCWWvXWYNxbMKXpRdJXw%2FidPnrgxWxX930lIrofJv805yD0KZu2u1k4ShkjjH7BXaHi6nXwfjT%2FMx2YVFgIuZo8UHbSsn%2FSMVg1bgNtVkSt5cSHs4y3ey1zewVIPXAVGw3u3Rp3EVroEKrPiOIDSqh5glaOWc1I0ZxofdzGTTpBdV8Acwc%2FT40Zatw%3D%3D%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/296987402187?_skw=PSA+10&amp;epid=22056471497&amp;hash=item4525d41fcb:g:YqwAAOSwDD5nUcBQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFYLo6BI6ckPlEHOuKsJSn9Z93C%2FCuk7dcEAjeDv6v0njf4%2Fu%2BhTvsKmF%2Fg45EzXMGlE4MNp7w7K6ReEZkliimFZbj0EKdZDI4Wv0yZoEEYXTqIcoOKCW4Se4wWjoVK2FXaPWH9ekgI59hmZPGr3idXj8taTwiV1xR2KfGcmw3p8bdwfgDc36mrXkiwXwa3fiPNmo%2F2Vr6vQ%2Bj5Hv4LOXfYa3h0mbdsdcqpzAdjSZdp%2F3CcS1Vya7UzgL0BYqh7jiSag8MMpJjbGfpcrTyWSZt%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1527,23 +1519,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Panini</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Panini Prizm CONMEBOL Copa America - Dual Signatures</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lionel Messi</t>
+          <t>Christian Pulisic</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$550.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1553,7 +1549,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365377472047?_skw=PSA+10&amp;epid=22056560081&amp;hash=item551231c62f:g:9DcAAOSwRAVnl-Vq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnwzyZllyLh4I30X%2BK8ON6%2FUEmzqI7dJxc9jkuQHKPUDgoDUVgGgBI7r9ALBCdmhfIolca17%2FvaF4ISkCakVxAZv%2FQtPbS7Fhm9VMVM8kH0wxeGhecv9G3tm3IlwtRpV6t4EgJTa5b8wFA%2FA30f8BSt4ItrmeervHjQnlqajTRloEPaospQ1QbDLO16ZxHSjEb%2Bw0CIhjtfSl4B7OBxpekj1%2FIlz5JOzD%2FMYbQLGVvNVA%3D%3D%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/396149989222?_skw=PSA+10&amp;epid=5070474956&amp;hash=item5c3c611f66:g:HpsAAOSwLiNneFVb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkTsdPlJ9cPzhE3eZnUWZuPaIIMSlT2%2BXmpps%2BnDnC8EsDOnnL56AVXEKwGCrzU8eAw7jsqegcaIhci33rVyMHbG7hSIMT1LzKkRrAsdk4I0fdvrULiwpy%2Fo7Pb1i1fDkA2f3g9L%2BzRYT9EwSY71aCs6ApzLn4hpQbMAwBMcTKYk9L98oL3z4FT96KOndNqbn6F2JZMhJHvBR%2Fad%2FVjbFkbvgXFI1n%2B3DanhXTAjtUYPkIHYjlEC1ZLI5lw0wGxEgwKbo9sX%2FcjMLRq4xcl9F5N%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1565,27 +1561,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Topps Stadium Club</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Black Prizm</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Guillermo Ochoa</t>
+          <t>Kylian Mbappé</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$1,000.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1595,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306090507627?_skw=PSA+10&amp;epid=16056553449&amp;hash=item47446a7d6b:g:HFsAAOSwQRNnnC9k&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnywGJAvXiSqdZ3dNI7cZteX3lB2PQjrBZcSPA19C5e0NrmATPSmXTvRTgPkz0CuVcThC9SPe5gNq6i9Cf%2F0YWPMjMbcV6hjpdFoYs8fx%2B0AOZMMTZoOBhn7zuJFDzhQvfuv%2F0fBXD89%2BbtprsytKho1CyJgOzlcGVwoexGp6S7dxkVXYeAMibVKIwO6gl9ow%2FEy%2FrZLMVHBeC6JxfvKSI%2FPTVOpuQgFmgjRrzhd8khAg%3D%3D%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/226482666321?_skw=PSA+10&amp;hash=item34bb6b3b51:g:~14AAOSwON5nUgrg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn4RlzgpRjyznzB0aGB%2FSj24oPht3diorpfqiwfLoBIFZtEqHIfHIU2TR4ukEWPh2SKNcvPMDBfPzNXkWKjO9ioyTFIw3xNXRYFnxJ50P1Yv2UFpmZ8NYhh%2B7mtqFFLg07sBLRb7%2BEYRVcviHjt15SC%2FxEVH1rBbR3uDY4VCubgWa9%2BodFQoENkXJcRnKHDXyYRrDkzG8glypWCpYwTo79nXaXwdalOWhMz9K56HUwO2SoEKWlUC%2BZhTis6mj4e3DvN9mbJogIZZP10BicXA67k%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1607,27 +1603,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Topps Chrome UEFA Club Competitions</t>
+          <t>Panini Prizm UEFA Euro</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Orange Lava</t>
+          <t>Green Prizm</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Roy Keane, Gennaro Gattuso</t>
+          <t>Marouane Fellaini, Kevin de Bruyne</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$157.50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1637,7 +1633,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387612302811?_skw=PSA+10&amp;hash=item5a3f7e5ddb:g:rkMAAOSwK59nNXBI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkxlLFdKCw6TYCrnU%2BP81XzXCBHj6r43AvAzl2JUmrKqfC1DheJr%2FIoJkrb5tcf4Im8Cq7t3sHwIwE893Ny3CESL47G9aPOpz4iOzkH0DRumYlHBDrXVZvGjk5DSIRRjxVEPsjcWxG%2Fe5QYJ2%2FfVgrCaAKeuKcAoqXnhWGsGR532XIrHzDpUvx0CGn1D4SiX1eJx77UOiPYR41O2b%2BKD9p9FjHXD9vzkrZSIH%2Bri1SFn7hUYaj8ScjoGfMU6%2Bx5r8A%2BBVuFC3eUA7WBKbfbOfFb%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/296957657907?_skw=PSA+10&amp;epid=3056477205&amp;hash=item45240e4333:g:JCkAAOSwMO5nkKLN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnPCo%2BNIvBwjkg6tznQWaGtPup5nAPFfMLxvmhbTb4L3NjWCP8LSwJpefVh8PzMd4xCpVm91y5SCRQj2oyxQdzQTz3KNfFq%2Fev%2BvpjVk9wiDaUMJq5nevFxCHW5mre%2B3PtpHQPulrMrr1mzYXW67T66lcEnfPFF1HUoDrMSJJlre2KTszmQJ1np6xa989p2aGCexCVhqWM8q6iRP2LFpobFu504PTsIwwbex9IxwPixVxmtpJSaNTAMvPNBplUI8MEYGXJxMne1xp4svv9IZDOl%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1649,23 +1645,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Red Mosaic</t>
-        </is>
-      </c>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Topps Merlin Uefa Club Competitions</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lionel Messi</t>
+          <t>Lamine Yamal</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$159.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1675,7 +1671,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/234790011616?_skw=PSA+10&amp;epid=3056586110&amp;hash=item36aa9342e0:g:nGYAAOSw-6RjfFE~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkntyJDUnbMQ47F9F2kBuqNuUDhmRWOmYWnC%2B31vjT4UrXsx4%2BIRq6%2FkFDdaCN81xAXi6MkdeSC4Hglos9umcafTANYuIupuQU8gw6tIjHiMn3PH59l%2BivWcxBZrPOeNhdZzgPHmBMp3J1xOTctumIcxq5p%2FcNwavN08uxxCHk3Mw%2FWMJt5CVFD9xj%2Ba%2BHpKvoiCxzfFWg7XumJyrwHmVwunh%2BVT96hq%2F%2BU2RCqhT9SBfvxcBEn%2BWZ5qecYCXDh1aIwUF7XQ5xHuzixF%2BarHOb4%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/387886812741?_skw=PSA+10&amp;epid=11071747673&amp;hash=item5a4fdb0e45:g:nFEAAOSw~9FnoIIf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnxCc80A48FUao2JBCXe1igZeiUnxb4J7sGSpWP4wws3m7kf1K8gpLNPpowuezmr4stymJfUwpRO1nTEY6p9t4gqgxds1KhMmiA4WX9YkjrrWlAjrv%2FNX%2FER0d21wBgTrsh6TUONzF%2F9LUB7xUWU%2BnpkSPvknuGh4mNaUpBoNK5ZKf2j%2FtF3YFbu3OCIfKhvuRrnsDDcT9a0R423tz2wzDvDtTXqqIJzu5ax3%2FrtrNPZa%2BzFO0vQJR%2BtyxFZDoxKZvWbtrufebtzMgLyrz1yYDg%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1685,17 +1681,29 @@
           <t>Soccer</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Panini National Treasures Road to FIFA World Cup</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kylian Mbappe</t>
+          <t>Lautaro Martinez</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$769.00</t>
+          <t>$152.50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1705,7 +1713,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405241232096?_skw=PSA+10&amp;hash=item5e5a427ae0:g:2wMAAOSwYDRm7eQn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlXT2seBehOCR8Z9CUpksWely3GdaB8ryxjV1KomV2KQb31LQ%2FTlyyzCcLH21s1mCAPvFG%2BH3Qyx9oBi75Qgo4Z3tOTZFWr8IQTpVjcboYVLV4F%2FifAbcTmAXLJU2W5%2B3%2FiXSr244BshU2rO9EEjRhV8ismj0nX2HzynASqdGNZ6ux37rrECf2UMAFksANu%2B16gU1opyySUvDK--zyntUFrWWSyqsIa8qgeOcrrOEW%2BS8rsQ1zhXv%2FN82NdW1dRed%2FUMOu6zXkMhpHHmOiGpNVY%7Ctkp%3ABk9SR66E64qcZQ</t>
+          <t>https://www.ebay.com/itm/326424067613?_skw=PSA+10&amp;epid=19057656949&amp;hash=item4c0063fe1d:g:UFEAAOSwBxZnnBXk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnUHDiFjqMLIiVpqyFKLbfXzFfTDMCf3vYQgDFi7gF8PRenYt9Uwq032xQCf%2Fa20T%2B7CF6QkLjDD5iJgunhlURwvl9UobbmWt%2BMVkQnDmHoz0hDzoJDvf6kfsA0i%2BXvXTTsXtYABg5%2BNoaFgkQNCAMnSGq1UId1bgPAvffiLNTMsLLuB4LNTXwBOBpjcyFbcTGgq176BDnQqpk1Ffaavxc2xo%2Fj8ay17gvJs2JM2MPWHK7NN0mTyd3cI3fO3CS3qDY4nE0zMeMfVhTRwRgVU6uc%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1717,27 +1725,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Panini Impeccable Premier League</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Tie-Dye Prizm</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Josko Gvardiol</t>
+          <t>Neymar Jr.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$237.50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1747,7 +1755,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296983917081?_skw=PSA+10&amp;epid=3072720773&amp;hash=item45259ef219:g:s9EAAeSwmipnoWc~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRz4l5R%2BAP0IZyRIHiQLN6PajAvU1o0xHVaflWOb0cqNykpH2SwTVEDg5%2B6fi3wPXEsBN%2BXEPwkRWUsjh1FCa2qch%2Bp1n%2BCX%2F5WltScTowr5qrkWEhY%2FW6%2Bn%2FgQQoFk9rP3KcHFj2t732EOfQlGrA1eaZjDp5fTBc79McSur3U3RrG43W%2FYowrqW29s7NoG62XJIXu4plJkzxwBOslRwRApfgEELdmInkNirl%2FSy5ZVYAcyIY4KcXt3c7N99f9lFG8qUgvdWG6%2FEMt5vFOOuld%7Ctkp%3ABk9SR7CE64qcZQ</t>
+          <t>https://www.ebay.com/itm/326424047292?_skw=PSA+10&amp;epid=24056470016&amp;hash=item4c0063aebc:g:biwAAOSwyhpnnBOD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlVneNzIaI8b79dYYF6uVvUQEE2sTFCru1qYfuuKvigP60JluWnz%2Br15tb0PEmRyVWzl4MuAJwY9D%2FiLSLJU8Y2UV8ZSHFM74060wzltP5dDUEn98LnnHIsHE7%2BI4%2FhyvLNIAvGEUKa7M5K3EQZI7GsOpm5cXOZzJquePSo06LuYxeye0U19MlT3ofR1g4jNKJA6kx8s5ujkmfk%2FDTEb2nM8xJe1Hn5FXM7otCjKvjCMA%3D%3D%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1759,27 +1767,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Topps Inception UCL</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
+          <t>Futera Fans Selection Manchester United</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kylian Mbappé</t>
+          <t>David Beckham</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$890.00</t>
+          <t>$1,050.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1789,7 +1793,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396078712112?_skw=PSA+10&amp;epid=15056577548&amp;hash=item5c38218530:g:FRgAAOSw-m1klARS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkvVsPWDYL6jN8pXXLJj1EERFhDM8Z%2BqUWpg6SenQxAdbt8Ng8VyGEJdrR134Z5yf5J0oibFgnc7wRmMufV2IHrqFzE6%2BsqGgdI87ilRWiZ4L0IoLQLGBpGRRqGka%2F1aTGCmzXUvlhbKS9eMqTAQ495M9%2BBgcocJrUF5ZoaeYuSq%2B4hb1h%2B4G5yaB5eJan%2B6lQ1eVmIVA79s%2BVZzWJ3vVVBGxtqEpaLY5nqmuDCbdQoUQ%3D%3D%7Ctkp%3ABk9SR7CE64qcZQ</t>
+          <t>https://www.ebay.com/itm/185264114335?_skw=PSA+10&amp;epid=2329810336&amp;hash=item2b229a0a9f:g:-p0AAOSwReBh4QuW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmrlYWS6aKcT1leSVOafhT29B948RT88PwkivvSjN0HihJgNmxpfnJDfCTsXOC6vPRfWOdGUrp3S8aY82fX7kLpBca4kk9dU%2BGxRhEgLMK44DH12ZNRhSUVyci7%2F3E7UlAaN%2Byg8BNYFrROO5TIvHPJL86j3RKlPwlyIc5BtlGfjt%2FwQa%2FcEBlZ5hr3mQ0GqPTPFfFf2pFy2sU8QY29DW%2BHHNlgWDvVhqUNtLLp%2BM0Qw%3D%3D%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1801,19 +1805,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Panini Mosaic UEFA Euro 2020</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Orange Fluorescent Mosaic Prizm</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jude Bellingham</t>
+          <t>João Félix</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$192.20</t>
+          <t>$199.00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1823,7 +1835,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267028746720?_skw=PSA+10&amp;hash=item3e2c2751e0:g:GjwAAOSwfztnDamp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkRg0ckuEZqSsZLapmhfgVdtPb7A0JVA0Cta6aUDY6nOXzTwrfJLQ5D0TNkHjhdTr63Fz2zFwXvxUejC6W6adz%2F%2BWPTTRa0xRo9X9svSrDLE1Ppl2rBsMMdq3Imxu%2BY304LZMz684rQaZAl6fVtx3n2GJiXawCfVfLniS1TyyVBZhHmbYQ7u1ARMLeVSx2WiJ0FHUxKo0Ty3ao9QJAnG58u6nooyyFDAe8CqJWPYnxNw1RZj8XZzrXFOLt4xRIc20E0B%2Bgl%2F5MPamIj9r8sgjTx%7Ctkp%3ABk9SR7CE64qcZQ</t>
+          <t>https://www.ebay.com/itm/374468335210?_skw=PSA+10&amp;epid=3056472906&amp;hash=item57300d566a:g:-XYAAOSwm4VjyGwz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk7GNY8Ii1GT19ib5UEZssGLvkv%2Fe0sfBc%2FCEvSZRCRmVVgUMmYWILb0fHLsz5%2BpYBQ4HdYTmr3egMFG6DDyyW75JmZwO6gW7z9sRk5zuXgYLcdzp%2BadChjj027KxZt9kMEeifTJcecAPp8tkgAaVwFYuXsNYhLSlhNm359E3fZMVKDDSV1tqr75jzrpeWg5A0WSL51NzBNlHVf%2FKCavfcPJUN7L2AXjWVNzOQfKWHF0l4pov%2FPwfgbabd0prODhSgK0oI7pdW1eZougNDPX958%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1835,27 +1847,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Topps Chrome UCL</t>
+          <t>Panini Obsidian</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Speckle Refractor</t>
+          <t>Black Color Blast</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Cristiano Ronaldo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$849.95</t>
+          <t>$625.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1865,7 +1877,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116427145291?_skw=PSA+10&amp;epid=28056473805&amp;hash=item1b1b99404b:g:TOkAAOSw2TdnaYV6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmAJna9q1TiPYk35g2HCpEl4lF4HN5Rut7aoqJCw8M%2B4sKjiqoyy33JoWlF0hETtJq4PSmMXQcXLydwSd9okUWFyr%2BFmg91n0zBbYrNuQWOg4YjItPgxwMt5N8pLz0WsALBe%2BZTjpmOnCRSvAuumD80E2AtsLwUnumgUUz4180lF%2BflrMy%2FJCbPLKO%2FRWxTIlO%2FYJz57hAGShL6Q44wAym0P5J9SPj5tibFytlh%2FCs5wO59ezhalWlOzcYECgVuHXonEGikxdlh12kXLCGWPGgs%7Ctkp%3ABk9SR7CE64qcZQ</t>
+          <t>https://www.ebay.com/itm/387891409217?_skw=PSA+10&amp;hash=item5a50213141:g:1P8AAOSw5bBnonGe&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLpyD4tIdq47cvau3ZKwJkzcs42gdP9mM7p01a%2FgNK268wAioTDcEuyCeieYo3VqENOgaOhe51SVaPjoSkbPIHytyGvLPlt03abQZFaysSYqhr94RkPUcfNxz6IITasmRyC7UDYFF90xcurIwbxm%2Bg4Zi4ABJzs3gfCkl6MnxCbQOl1pAQEhm2tsmCw8RoD5YPuQe%2BZW0OKaFj2%2FN%2FJ1FWdH8L5rDX15YuMUWZmEeMKw%3D%3D%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1877,23 +1889,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Panini Adrenalyn XL Fifa 365 Update Edition</t>
+          <t>Topps Now</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Christian Pulisic</t>
+          <t>Lamine Yamal</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$179.99</t>
+          <t>$199.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1903,7 +1915,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186923036522?_skw=PSA+10&amp;epid=6056487135&amp;hash=item2b857b2f6a:g:0LIAAOSwxhBngR6A&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlozAjydlaYvDHFRULtQiqzz%2FvqEJ0NfeTyCeBUFUtRtXs%2F7w8eZ%2ByRhbRt%2F59d0ZXVBEKOhji0R4yDBZml0lNYbFFLphNhMa3A%2BlC58EvbTN%2F001t7tit6dEMgfbSmpSXXuxguN4P9HZze37RFfhC7d%2BBbTsb%2BFgft%2BNOs9hezpLvko%2BLZM6rs3BiFA6UVLJFw1Aiw6zr98HrlDeibpKaI6%2FAWGSC9UV21%2BxOMUiVEW5SZSZr5xAAOosGM8Sob7%2FhbfFuYwn5LfBHkNE7KiwV8%7Ctkp%3ABk9SR7CE64qcZQ</t>
+          <t>https://www.ebay.com/itm/276832862453?_skw=PSA+10&amp;hash=item40748640f5:g:wmAAAOSwHSdnl5LD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4eOswVsqLeImmFNkYmHuwMW%2Fqk1vwzx6zcGhLkeTHFy49PNmvGF%2BSqUDlCnA3ww2f0d1TrRLIM%2BXZoW2c%2FTVTyPXY%2B%2Bv08zZgycA2GWHuPFCSsXPmB%2FcFaYDalIRxP%2FbOdc0tHbRdxSM3jUJK29lbNteRIbKw%2FKyMe5L8TxF28OtaYwxFt89PsCWnecEnnLdqXdBKO%2B6RGCi7T2R7kVKzVK5GC7R0Ri4DoAnXas9UVw%3D%3D%7Ctkp%3ABk9SR5zkx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1915,27 +1927,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Donruss</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Kaboom</t>
-        </is>
-      </c>
+          <t>Panini Prizm World Cup Qatar</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rodrygo</t>
+          <t>Pelé</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$502.01</t>
+          <t>$824.99</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1945,7 +1953,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196581708306?_skw=PSA+10&amp;hash=item2dc52ed212:g:tuEAAOSwi8BmyzaL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmEgWsW7dUSD2ESzdqsN5Vleleaha3bAEEvEnGhR6SpGTt9c1gHoYnrHPTjeLEZX29nIUle92AiASGdDGx4Wktcbu29K1Yh6a0PZcIeZx8g%2FhCvGMsEwaEKoOpjTPsHqv%2FRBqaR71%2F2QMIKW%2BEeGnKuxL5dXjEceQQm%2Bc3n0cBW4qu55poL5QdFEe5qHb%2Bgx1blFA0PP74wq0zegVodI6n7xaezfuJpTwhTmWwJ%2B0juHA%3D%3D%7Ctkp%3ABk9SR7KE64qcZQ</t>
+          <t>https://www.ebay.com/itm/176765169985?_skw=PSA+10&amp;epid=21057548783&amp;hash=item2928067141:g:620AAOSwTftncwUs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlLqLE0pidAJwdjl1be6Fpti1XuJJKXQcr2d75bvqbWdefwrklRt0XIx2Oo9qOopZs%2FigBZ78%2BvTEzM3CLUoNpm5SxdClflWNuIS7P1PdG%2BAc6xeaTXIMuKzlFW2sF6zIJYPw8NeRHdjAowQuHI%2BDCmucXTWGKaykaGOmedoGFGDYZsLedvo30PYdzwa%2Fu0YcPi%2FIvE99HkhbL1j1fUJRUhvfTEwHVru8tEo3D%2BEr1umw%3D%3D%7Ctkp%3ABk9SR57kx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1957,27 +1965,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Topps Chrome Uefa Euro</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Orange Refractor</t>
-        </is>
-      </c>
+          <t>Topps Chrome UCL Sapphire Edition</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Gianluigi Donnarumma</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$189.99</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1987,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176796512344?_skw=PSA+10&amp;epid=18073604228&amp;hash=item2929e4b058:g:4KwAAOSwD2tnjBC4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkuFqel5rRwQr9o%2BbiCKfOMxMYUPMdXWVc%2FYb%2BkYL9SWUu1uHIMX%2Ffpc9GZckOMrr%2Fz7RlyJqYsMrQ8Hc98pzkXw0UwmKzZ0cw1ilEtd8mx4poUwVj9zzOk47TqLa8R%2B91tCZrraL64awNwuEZViy9o2jPuLCTj0l38uCUgY1vsuc3qMTeNhjA0Cqw%2FgSXdB8fZmz4n7%2BiUwlRqDbwSDjjQY8ofbdG44h973lW7BOOipbtPlHo%2Bn2VE1%2F5s2dLFmS0geozoljeL0LpHCbM2x8N0%7Ctkp%3ABk9SR7KE64qcZQ</t>
+          <t>https://www.ebay.com/itm/256805460350?_skw=PSA+10&amp;epid=14056547556&amp;hash=item3bcacc597e:g:~pYAAOSweRlnor2w&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4Rv%2BxYxjGjDpEERlOtocO%2FmHNAHdvvHv%2F4uxLq99wJ2H3GCcSNzZSLTrwKa7VTqbj%2FYvFeIjPejrxmP0KwsFPqw8NyH2XhjySLdtHauLWYkjsmdFR6ahrpYKBsxt6qy0WTssTlaAncSBFFvPED%2F66QZzzxxp1VWqnlVs7Pi8hJgjEpzXe7vHLUcnrMHYQmAW8l%2BMIW80xay%2Fn9uvbgpMYQTr1VU7C3jRR4%2Bh4ZHKBAw%3D%3D%7Ctkp%3ABk9SR57kx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -1999,27 +2003,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Panini Donruss Fifa</t>
+          <t>Panini Mosaic UEFA Euro 2020</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Teal Mojo Prizm</t>
+          <t>Reactive Gold Mosaic Prizm</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cristiano Ronaldo</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2029,7 +2033,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176800021399?_skw=PSA+10&amp;epid=25067913561&amp;hash=item292a1a3b97:g:htIAAOSwwzFnjwsm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmlkIdGDVMBv7qHBtozvjRhe9q6rA4s8hjSmZ8EuNY4xF9o0pDBu0YselWxBkEefBb2JKouQMU11UdPjDFTt%2BTPty6u0rXOfwzfAs8cnkfmAMdRtg%2BbmvMdxAq989nD8TSSGfRZDcl%2FUs1U4gL3buM3dM5begQ6GnDIUNCtseDrMqRvUpP9MH0z8B4%2BcpcmdPSa5rhihmA7mX3wbU6yTe5WdHo7c0SLGb2o63oorxEORA%3D%3D%7Ctkp%3ABk9SR7KE64qcZQ</t>
+          <t>https://www.ebay.com/itm/185604793944?_skw=PSA+10&amp;epid=24056576945&amp;hash=item2b36e86658:g:eDAAAOSwVoZjO33w&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlVURMdLimDv3zQWpxYX0xePLt0uf0ax1Bn9z5oPyjmsLZqYAz%2BuUA1N2qcnDkaRZrRPCaKglHE%2BjQJAVBbpRyF7kUOt71uNSvnoGNYr26AkAuF76SQbYdNYlbzPZQQPe0UiXQal9SjNYkGaw%2FQY2emA3%2BIu4x0tZ51wHDXwHYDPAQKJulpv%2FLgRUHdv1DSCxfYcu6XvJi4scvzXKUMEESpiIVSg212lXZfz1jrWJ2F%2FoK7ME3oi1E1igl73RYao0sBS9bNCdyBS5%2BvvB24I2Pg%7Ctkp%3ABk9SR57kx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -2041,27 +2045,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Leaf in the Game Used Sports</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Purple Holo</t>
-        </is>
-      </c>
+          <t>Topps Finest UEFA Champion League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Alisha Lehmann</t>
+          <t>Cristiano Ronaldo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$179.99</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276843964129?_skw=PSA+10&amp;epid=10072883073&amp;hash=item40752fa6e1:g:feoAAeSwj09novJL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmFQfcS%2FGsfk3tkm1k%2F7Dguz5cQ32UpNS8jzvseiWGZpUfYbWokZkPlktMhqH3Fphq78VhoFzHOht1Ajsj4bHQawgQc77x7%2FtJY5eOCywLN%2BMP%2BnXopu6uUdj4SNxkHGoXpVaYWlPpu%2BHVxlcYDCFsdG5WHQ%2F8EWgrM5nztb%2BxZI5AuhFGxraVy%2B2Efgoq6jOxgH7uiEXtbHsg0ITfHtHn5ocidUJxlYic4eXInuVgdopdtQLoKrXYtjb6PLFrmZNpMyaM2AlcZTJUQ%2FtHhzGa3%7Ctkp%3ABk9SR7KE64qcZQ</t>
+          <t>https://www.ebay.com/itm/186251756854?_skw=PSA+10&amp;hash=item2b5d784536:g:kuQAAOSwHQploupZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkivkNBZsU6HVi2EHpB2yts3K7O%2BiyX2vrutAqDgIO9pibGPxHo6NiOVmJVYdwmfpJO%2B7rbTdihiEcPHB9emnXbbosZLgl%2BpecppKHjFEFtTwENoKQ4ONPovz498BXSzj%2Fjare7AXCPUcu5Kk%2FfPOl3mUuyZd4YkVX0z4ovcM0VQqcU2e0ASOE7WUVkGEvznac4kRpx1Z6QfpnRUWS%2Bp2GBxiwoeu%2Be72dSlqrwJujtWFTorY3Rih8h6qVUgJB7Ddavv197NbuD3ElKL8l%2FQlb3%7Ctkp%3ABk9SR57kx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -2083,27 +2083,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Panini Donruss Fifa</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Red Prizm</t>
-        </is>
-      </c>
+          <t>Panini Champions of Europe 1955-2005</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lamine Yamal</t>
+          <t>Lionel Messi</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$525.00</t>
+          <t>$550.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2113,7 +2109,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156522311742?_skw=PSA+10&amp;epid=21067931354&amp;hash=item247174f03e:g:WtwAAOSwZJpnONzl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlRV3y2GwX8kcfoUHuPo%2Flke5WGlenvZWoygp%2F6Na8OH4v0XvlX272Xc9HhDiwxv%2BSK2VOP4CnIpQBQD2BJqa1v%2Buu8IUwfB%2BHXwyEPTZz2Ufcf4%2FnSImlmiqfhCWV7Cax1s--gsvM0PhfXiQpluHm1naczh4ac6H0O8qfjieY9IEnHgP72pfFMoT9FSuAYaFak9DL4WEmE2xfwPq%2BJ21VbU1hzqw%2B%2B1V3%2Bnud71vB%2BWv7M0qJkHr8wr8mFajSk6WN8L%2BH7SUUH0D9mFPmGUUf9%7Ctkp%3ABk9SR7KE64qcZQ</t>
+          <t>https://www.ebay.com/itm/365377472047?_skw=PSA+10&amp;epid=22056560081&amp;hash=item551231c62f:g:9DcAAOSwRAVnl-Vq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkJvhGh595KeKeGSQhmWg89%2F2C9iCC3AjcDGhCM0ADnwC7SNt6Yqhd7GXh01%2FX6UpRdBvaGJH1Kygw1%2FfH8SZm30ghZBkrthidqgzND8dUNO6urg18u0prdjh1kLxnaaaRPXydMRh7mZmHZEmxgU2KIfBI87Cy0F7SwCm%2F4MpSVpS7ZJMUU6EEqGD70diqlpF5w5JCw9hj3VR1QZ8%2Fm5OlpAuUXZZsGaNLS4P4C9fPfpwIMPdo%2Bqxn%2FchfDiUCyfU%2FuU%2BI0KKoKKFPttq%2BfcZkP%7Ctkp%3ABk9SR57kx7GcZQ</t>
         </is>
       </c>
     </row>
@@ -2125,37 +2121,769 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Panini Select</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Black Prizm</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Guillermo Ochoa</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>$1,000.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/306090507627?_skw=PSA+10&amp;epid=16056553449&amp;hash=item47446a7d6b:g:HFsAAOSwQRNnnC9k&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlovMr3j8JXnswYmF1u2A8a1Jou3YPCNyXvwb3DkEeS1R5228kWvmhADOvQxshLl9QqM0MZzTqgOu59qaWxCyeOzS2qGJPb9kFKD8K%2Fz8SA%2BGmvxl%2BcO6gKwyl4nmFM3Y9F9suuvU4AAB2QTHljvu164dMe7rBaxe9xz1UoOeBcye9ODmKOa7Ym96RaKHGEH17PUr6ThItnFyrVa1swzh9UJMmegiidJ%2Fl3%2FUBw0w3HuBZxbDE78JMa2IgEAacNw4hBqHpW4u5o0zzOKwJGTUxt%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>2023-24</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Topps Chrome Bundesliga Sapphire Edition</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SuperFractor</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Jamal Musiala</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/196686875531?_skw=PSA+10&amp;epid=8070467067&amp;hash=item2dcb738b8b:g:8DcAAOSwmSRm~J26&amp;itmprp=enc%3AAQAJAAAA0HoV3kP08IDx%2BKZ9MfhVJKllO3l1sM0mLr7inw2tJ%2FU%2Fm2GHkoYsvfZEDRAIThOzCP9%2FHfIliebl8wpN9bB8W61Hr5IZ6cIxYJIJks3OJdY5bXdvnPC8BPncxiEd8HxqhNcf%2FY8j4sTe14vngF%2FfEdIECgheiVlK2sBM%2FSLRt6IVBquy3jRAYujrsD%2BLR0LjcZCOoyU8J4hiWd4HI4B7QJdsuDGDVX%2Fz9Knt2ugOc6J8CK4t9NHkUfep5l6H8sdvlp3cUlfxH6v2%2BkX0BRapT0Q%3D%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2022-23</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Topps Chrome UEFA Club Competitions</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Orange Lava</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Roy Keane, Gennaro Gattuso</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/387612302811?_skw=PSA+10&amp;hash=item5a3f7e5ddb:g:rkMAAOSwK59nNXBI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkxlLFdKCw6TYCrnU%2BP81XzXCBHj6r43AvAzl2JUmrKqfC1DheJr%2FIoJkrb5tcf4Im8Cq7t3sHwIwE893Ny3CESL47G9aPOpz4iOzkH0DRumYlHBDrXVZvGjk5DSIRRjxUhcLqzRgEbe1csZTwdqW3CtoWglGsYldJgnsHNZp6vnCFcf4xT9b5T%2BD%2BgQr4lpIBr4EuZljdHvSL7KKUVji%2FwFY2hurnkapyh%2BB6jjX%2BhIU2IumlUET28CE3v7%2BeKZjSoLJsnzIvdjLuGei8W1KNo%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Panini Mosaic La Liga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Red Mosaic</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>$159.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/234790011616?_skw=PSA+10&amp;epid=3056586110&amp;hash=item36aa9342e0:g:nGYAAOSw-6RjfFE~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkntyJDUnbMQ47F9F2kBuqNuUDhmRWOmYWnC%2B31vjT4UrXsx4%2BIRq6%2FkFDdaCN81xAXi6MkdeSC4Hglos9umcafTANYuIupuQU8gw6tIjHiMn3PH59l%2BivWcxBZrPOeNhfqPdh68fxHGjTupgWxEXCbyQtYHGWylpf9dg901MQd4OnEcb4geAtYnI0YA3iddY%2B9RygqbUClOvIDbAAFsx8pgHxJXDUrl78LEG2IaM3oyN1UKxPQVRerRRdAjxTIJHtSIxOXskjw5Qat2e3Hbzhe%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Panini Donruss Fifa</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Red Prizm</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Lamine Yamal</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226406347956?_skw=PSA+10&amp;epid=21067931354&amp;hash=item34b6deb4b4:g:dxYAAOSwIOpnEfIR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKAl6UPNxPXlYPUSLSYG8tueiIaW2qb5yuUizc0qK1CsqCWpvG5eUYY0iFqdvYBL1rkflH8QMB47tYD7pkuBF1qLeIf6CjTKI80jiFJxTBrDb7dczjYJEZw8QLOhJGkXgjQuTZ3Yum%2FC1hT4aQ6Bksg2d3FWtnKgJ2BuaKK3SQ%2FpFUM%2F1%2FbODgeDaM9iCCDnahVHO9%2FMfL2sSEJpUKKrwa3Mk%2BY%2BiKryCo0%2B6r8nvpwP4gPS155x6BmBwMo9ptxpUbgKKUhoJWCdj9Ci%2FOOnTu%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Kylian Mbappe</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>$769.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/405241232096?_skw=PSA+10&amp;hash=item5e5a427ae0:g:2wMAAOSwYDRm7eQn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlXT2seBehOCR8Z9CUpksWely3GdaB8ryxjV1KomV2KQb31LQ%2FTlyyzCcLH21s1mCAPvFG%2BH3Qyx9oBi75Qgo4Z3tOTZFWr8IQTpVjcboYVLV4F%2FifAbcTmAXLJU2W5%2B3%2FbJfvZtL7CG1yGJqV%2BmmjyIYxcKLQDC%2FX%2Bc5LcKzEmu4CIfpw1QTc6VdwU2XW57UUg0t%2BmHAju2KLSBTGSDKPji0YVAq1Lvgm7s3PQlu9r2g4hTalM5LSFUa9uiDIrBLwdMnpGsH%2BuRFYCXIywYspB%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Parkside NWSL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Trinity Rodman</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>$1,699.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226390739797?_skw=PSA+10&amp;hash=item34b5f08b55:g:S2gAAOSwce1nBbGV&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm1eWMcMhWiVNNj9X4ASnl1vStN8gbX7B%2FI9zCudD9XBES1eEcWWAQEP7W2PJy4jyvae4hPwsUkPx4F1jXalky9zp1U0jsoi7a%2F0OitlgQEWE6Rk0lgohWJwZlqDW2SyFsrHG%2FHwkzNXjiQp%2FgRIykdxEVYLVe6Xt89znv%2Fa2%2BmLDMJbb%2B2Pg67A8uW6lXYbMwMT%2Bp19dDWtmcV4dYdi1PJEqnDapx43K65qSdkFPDDX0QkZVmxRhsAxLkD3OwtQZHkNnj52dtgGqDDAJGSR6aL%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Panini Impeccable Premier League</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Josko Gvardiol</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/296983917081?_skw=PSA+10&amp;epid=3072720773&amp;hash=item45259ef219:g:s9EAAeSwmipnoWc~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRz4l5R%2BAP0IZyRIHiQLN6PajAvU1o0xHVaflWOb0cqNykpH2SwTVEDg5%2B6fi3wPXEsBN%2BXEPwkRWUsjh1FCa2qch%2Bp1n%2BCX%2F5WltScTowr5qrkWEhY%2FW6%2Bn%2FgQQoFk9paWusLvHtDE1EX3eoQWKaZiqNFLYLE1ooghaZ7neGNDpBMaEZlcSBHJYIRtubKNp6sp9VZRk82C4Vys6euh%2FVtm5Zk2Dlgm6uspRWhVFuk0Dekz%2B3izspogATrFTp2lF68tBUWfKt9JSmSxkGjUzRP%7Ctkp%3ABk9SR57kx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Topps Merlin Collection Chrome UCL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Gold Refractor</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Alessandro Del Piero</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/166956110291?_skw=PSA+10&amp;epid=20056467735&amp;hash=item26df5c11d3:g:XYsAAOSwoj9m2cuG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkRWryUGUW5QMSoCVbH2rG2anz6xSfGuNDsoBT%2FiTQGRWcmnMtOPkJTMTk%2BdbnHMkZoI4asRyGwA7M4usXPxEKHt2CxIuleyzl%2FumcabD06TSlUz%2FwzlS4ctbT0TJCwuOIs67jQFsgWME8QrHR8dC1oUobnihwBY%2Fs5GFeJncPV1WaLPL9KiQ2W%2F71XP4stdjsRZk2MtaVbNOKeVzKRwyL991nyEpOKsGm8V7v7Cd3veMzANxO5nk1bPGoyBrFC%2B2jHoNEkZBY8OkJlaR%2BBgRTU%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Topps Inception UCL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Kylian Mbappé</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>$890.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/396078712112?_skw=PSA+10&amp;epid=15056577548&amp;hash=item5c38218530:g:FRgAAOSw-m1klARS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkvVsPWDYL6jN8pXXLJj1EERFhDM8Z%2BqUWpg6SenQxAdZS%2BDSZIx%2FNnsCojF8dUKRpLHe5LqE6sQu4C1x7n5Gq8trmv55pERBAbh5ZLpIE%2BnNGEX2ghgdu5GXB8R1j9Oy2aLcjTYNhdz3yQxP8bGxB1YjdSJjw3YnVT9ErgKDRfd4XhPTy%2FZbOjaWbURvN6VJjXD78IPQsLxnIWak9kWFJQ4ARCeDStGmZNXSuzpVBG0A%3D%3D%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Jude Bellingham</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>$192.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/267028746720?_skw=PSA+10&amp;hash=item3e2c2751e0:g:GjwAAOSwfztnDamp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnSGflLmFJIzj1b0Klmnw7elSdOF3tVKLdkxIk3GuTqzOByf8rXDBN9Jpht95lQ%2Fu2hYR5V8iwkEt3jLZvrLiSvb%2Fl4j5D8bxrWi8VcMBGdZPkHppca2YCi1OCwecOdVLq7cWNH55FfLjjXxb5%2B83MtwYcDloiNhXln4ENR47CCnpfLK7ViiBHcpr5WJ5JBAcm4%2B%2B8GT95HJs2SxLUPmOXkiREdWYRUcYCgutPyIdGhhQ%3D%3D%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Topps Chrome UCL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Speckle Refractor</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>$849.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/116427145291?_skw=PSA+10&amp;epid=28056473805&amp;hash=item1b1b99404b:g:TOkAAOSw2TdnaYV6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnjlhJsQkl5Gc8EIRTZYtxkVKAEfXJeWrf3vdIdZOR%2BX69c0JuFh%2BCQ4X3tAK7tIHWILqeHK8uLm%2BJ40C8opGhCEbrVQjoxrzmUqdXf1dJjIyqCdkMTc4k4Wydj79wGeFa7EPpFD8rMCOowE8KWFN%2B%2BWiVgIXtNt9rtW84cYLwA3SLmqEmYrH6nDWiwHcC6dg1bHdE3etUuyEKSGYRsJVXUoYftMMyyiE2Xw2DOySVJJw%3D%3D%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Panini Adrenalyn XL Fifa 365 Update Edition</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Christian Pulisic</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/186923036522?_skw=PSA+10&amp;epid=6056487135&amp;hash=item2b857b2f6a:g:0LIAAOSwxhBngR6A&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlozAjydlaYvDHFRULtQiqzz%2FvqEJ0NfeTyCeBUFUtRtXs%2F7w8eZ%2ByRhbRt%2F59d0ZXVBEKOhji0R4yDBZml0lNYbFFLphNhMa3A%2BlC58EvbTN%2F001t7tit6dEMgfbSmpSUY4kbeI8OVq2liNYlIUmN1P1VK9QJcJzYOS%2F0cuVhtB3wrpiAA7EtrQxkJyRRWqMMGINMMtzbbKMcd7g1DfKg8h4L%2FzhJhypHy0dBTMUz8PAHCNpBB1hB%2BhLIYtzMkBzIfPyauf47C82A8FzVvsnvB%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Donruss</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Kaboom</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Rodrygo</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>$502.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/196581708306?_skw=PSA+10&amp;hash=item2dc52ed212:g:tuEAAOSwi8BmyzaL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkhEGgYrh7efXhOY8SZSz4LktrAl3BHdqn8xIGD1BotuVTiOsTQoIl7eDBBlzcL2D4kJK3JZ6HNGrphZGn6PsYjzn2A7cA63X4lp1guSA6y%2Bg90S4rbEvH1exMYGdOdidhQp2jwM6dd7zlqQ0sIipxDWOQAP07a6uHAYmhhsq5NFK3lku%2BeXXfwrtP5jxdmFjSrd05aNuxRgG4uan5Tj4APAGGMkDcu%2BOr9FeQuNh8NPxkOfLRFl0VxLvWaA8N1Cf2HwFNZZjNoiHgBm4lAmaga%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Topps Chrome Uefa Euro</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Orange Refractor</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Gianluigi Donnarumma</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/176796512344?_skw=PSA+10&amp;epid=18073604228&amp;hash=item2929e4b058:g:4KwAAOSwD2tnjBC4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnrd4xFksm8VCYZHEflfS06i0Y3aoNDYP9yJzy4SARfkDNoPxDuxzmnUwqYvqXYKp3u0mC2F%2BhHHQrY6ybErdZxJQiKZ0rhf1VQT2RWOf6ljjG%2Bgl1G0EtlPFgKCfxAXBOe6o5yamgcYfGQKfQndJYZ8Tvsa1Labp6MKe4HvJ%2Fx86Qo2mWkWieNtsnecLTbbQ0dVaZ%2FQrr%2BCwmHxI40laGfbkUg7u15oN9%2BdwIkqlJ%2BFA%3D%3D%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Panini Donruss Fifa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Teal Mojo Prizm</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/176800021399?_skw=PSA+10&amp;epid=25067913561&amp;hash=item292a1a3b97:g:htIAAOSwwzFnjwsm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlUG2OTAW4oxpiZBlBokCZutPKAejbv2VUjnhkFRahBT%2FwHZI1WNeL4PjuYq95oMoQvZPgEtSZBOsGkCJv1gT7Pdz9dDmsuE2raqY173zVurvBvi4A%2FPvsVnf2Ek6bDgqyWAH1Qn4fci48Y9DY4FQJGo5umPg1%2BfseL67airZGyvcGKjYJL9zEEhmssJRf0cKz9l6KlVaoYc4QwsCusuUCOYHgOrm4UW0Sw3%2BKW%2BmqNIpgqqMIG%2B%2BK1ir8aN7xJUJrWLNIHY33yEtHnV5t9zYIJ%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Leaf in the Game Used Sports</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Purple Holo</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Alisha Lehmann</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/276843964129?_skw=PSA+10&amp;epid=10072883073&amp;hash=item40752fa6e1:g:feoAAeSwj09novJL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmFQfcS%2FGsfk3tkm1k%2F7Dguz5cQ32UpNS8jzvseiWGZpUfYbWokZkPlktMhqH3Fphq78VhoFzHOht1Ajsj4bHQawgQc77x7%2FtJY5eOCywLN%2BMP%2BnXopu6uUdj4SNxkHGoVGCaGXsep70gAQf6zOkbuPuWKTkz7ihKtiEhFK8p5C%2F0u%2Fv702iXD17n20OdKIz%2BBurHxTcOVnuid3uHSv%2BNolFu3s%2FiufgIl4tnLWf4Xnox4jEUsgPlCT5HtgmBMbomdKnNFEF17%2B6lMPb%2BrdBkZS%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Panini Donruss Fifa</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Red Prizm</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Lamine Yamal</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>$525.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/156522311742?_skw=PSA+10&amp;epid=21067931354&amp;hash=item247174f03e:g:WtwAAOSwZJpnONzl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkMeCpaKhooLVvTfZwBgb4hWFyS9LO3LtJgSaB5Wqo3ZHq2hWysqqJVdEZ5HPxFJmmz7gnA4BSxlD6Y%2BF4FkH0uMZKKxX--bOF%2FVNJvtwG6g%2BrXgW0TVVDLgl16O0GOiUCSdUPbbRpuPsnNY586lR5mEflENv%2B2A63vxS1iQC8K3AVuc18KBv7HAHX5mVBIkrfk%2FIzJ5Yc6aE2seTfBF1Kt1hERA153EdwTbVIO4sEihA%3D%3D%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-24</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Panini Donruss Optic</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Red Refractor</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Lamine Yamal</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>$375.00</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/186762122939?_skw=PSA+10&amp;epid=18067927089&amp;hash=item2b7be3d6bb:g:doQAAOSwi~9nPNRI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlq939P8HeaEAOLYhkB4V2NTI3%2FyFr0PNz9pBwrAty1YZBpcjNP5aNaJ7ex19yjy1gAQrFXH%2FlsXWfQ4w6VZv0rTNTQbAff8ZyhTtzHIF3%2BlyW1l9gtdHLoN4JE6yjsOWiuE1liMYdBd7hOZOGvbp%2FnpZxVa%2B2kfRCxqqfCXpzpCEONng%2BXI32lqtEGvjrBoq9HYkTHAOTMNt%2FD%2FIvlUlaQM3EMuExwf7RvkdPvw7nQFQ%3D%3D%7Ctkp%3ABk9SR7KE64qcZQ</t>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/186762122939?_skw=PSA+10&amp;epid=18067927089&amp;hash=item2b7be3d6bb:g:doQAAOSwi~9nPNRI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlv2vttjDheXXTV6UjYUWuK87aJdRMqbgwYbqjeUwht7q6nTesFyt2sothvVEtk2PgKRxL8PYzFBbgANGmvoxMOsMsK9npE3cF1F1IK90X0HMB5VyZ2ZxFp6I8%2B3lvaG9lcduRXEzngJNBl08fzi8f82lOKM%2BiyBBZze2xQMnoRs%2BGvuUc6u0ZIW%2FiZ0QmPauQEEZ3PY1rvUbZc%2BKw3pnpQ5cP96cTAHbO8e46TYIdiTTCaRLccKezfK5%2F3IvNC%2B6LfEUxWoh2AyB8Ck5U0F4h%2B%7Ctkp%3ABk9SR6Dkx7GcZQ</t>
         </is>
       </c>
     </row>
